--- a/Matching Diagram/Ceiling Caculations.xlsx
+++ b/Matching Diagram/Ceiling Caculations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6D9FEF-5CEE-4C83-A505-EC9AB72A35D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1147D095-DD0D-44B9-B437-825F0D62D88B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="11490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="22">
   <si>
     <t>CD_0</t>
   </si>
@@ -424,23 +424,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7909,7 +7909,7 @@
       <c r="AO11" s="6"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="5"/>
-      <c r="BS11" s="27" t="s">
+      <c r="BS11" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7932,10 +7932,10 @@
       <c r="AO12" s="6"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="5"/>
-      <c r="AT12" s="26" t="s">
+      <c r="AT12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="BS12" s="27"/>
+      <c r="BS12" s="22"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="W13" s="23" t="s">
@@ -7959,21 +7959,21 @@
       <c r="AO13" s="6"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="5"/>
-      <c r="AT13" s="26"/>
-      <c r="BF13" s="27" t="s">
+      <c r="AT13" s="24"/>
+      <c r="BF13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="BS13" s="27"/>
+      <c r="BS13" s="22"/>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="K14" s="23" t="s">
         <v>14</v>
       </c>
@@ -7999,9 +7999,9 @@
       <c r="AO14" s="6"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="5"/>
-      <c r="AT14" s="26"/>
-      <c r="BF14" s="27"/>
-      <c r="BS14" s="27"/>
+      <c r="AT14" s="24"/>
+      <c r="BF14" s="22"/>
+      <c r="BS14" s="22"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
@@ -8033,19 +8033,19 @@
       <c r="AO15" s="6"/>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="5"/>
-      <c r="AT15" s="26"/>
-      <c r="BF15" s="27"/>
-      <c r="BS15" s="27"/>
+      <c r="AT15" s="24"/>
+      <c r="BF15" s="22"/>
+      <c r="BS15" s="22"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="25">
         <v>32000</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="25"/>
       <c r="K16" s="23"/>
       <c r="W16" s="23"/>
       <c r="X16" s="1"/>
@@ -8067,20 +8067,20 @@
       <c r="AO16" s="6"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="5"/>
-      <c r="AT16" s="26"/>
-      <c r="BF16" s="27"/>
-      <c r="BS16" s="27"/>
+      <c r="AT16" s="24"/>
+      <c r="BF16" s="22"/>
+      <c r="BS16" s="22"/>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="25">
         <f>(1-6.873*0.000001*D16)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="25"/>
       <c r="K17" s="23"/>
       <c r="W17" s="23"/>
       <c r="X17" s="1"/>
@@ -8102,9 +8102,9 @@
       <c r="AO17" s="6"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="5"/>
-      <c r="AT17" s="26"/>
-      <c r="BF17" s="27"/>
-      <c r="BS17" s="27"/>
+      <c r="AT17" s="24"/>
+      <c r="BF17" s="22"/>
+      <c r="BS17" s="22"/>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
@@ -8138,9 +8138,9 @@
       <c r="AO18" s="6"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="5"/>
-      <c r="AT18" s="26"/>
-      <c r="BF18" s="27"/>
-      <c r="BS18" s="27"/>
+      <c r="AT18" s="24"/>
+      <c r="BF18" s="22"/>
+      <c r="BS18" s="22"/>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
@@ -8174,19 +8174,19 @@
       <c r="AO19" s="6"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="5"/>
-      <c r="AT19" s="26"/>
-      <c r="BF19" s="27"/>
-      <c r="BS19" s="27"/>
+      <c r="AT19" s="24"/>
+      <c r="BF19" s="22"/>
+      <c r="BS19" s="22"/>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
       <c r="C20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="25">
         <v>5.9832685372892984E-2</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="25"/>
       <c r="K20" s="23"/>
       <c r="W20" s="23"/>
       <c r="X20" s="1"/>
@@ -8208,19 +8208,19 @@
       <c r="AO20" s="6"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="5"/>
-      <c r="AT20" s="26"/>
-      <c r="BF20" s="27"/>
+      <c r="AT20" s="24"/>
+      <c r="BF20" s="22"/>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B21" s="23"/>
       <c r="C21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="25">
         <f>0.002297*D17</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="25"/>
       <c r="K21" s="23"/>
       <c r="W21" s="23"/>
       <c r="X21" s="1"/>
@@ -8242,18 +8242,18 @@
       <c r="AO21" s="6"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="5"/>
-      <c r="BF21" s="27"/>
+      <c r="BF21" s="22"/>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="25"/>
       <c r="K22" s="23"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="2"/>
@@ -8439,11 +8439,11 @@
       <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
@@ -8460,21 +8460,21 @@
       <c r="C38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="25">
         <v>32000</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="25">
         <f>(1-6.873*0.000001*D38)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
@@ -8505,42 +8505,42 @@
       <c r="C42" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="26">
         <v>5.67E-2</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="25">
         <f>0.002297*D39</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="23"/>
@@ -8557,21 +8557,21 @@
       <c r="C70" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="25">
         <v>32000</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="23"/>
       <c r="C71" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="25">
         <f>(1-6.873*0.000001*D70)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E71" s="22"/>
+      <c r="E71" s="25"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="23"/>
@@ -8602,45 +8602,45 @@
       <c r="C74" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="25">
         <v>6.3219441148717109E-2</v>
       </c>
-      <c r="E74" s="22"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="23"/>
       <c r="C75" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="25">
         <f>0.002297*D71</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E75" s="22"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="23"/>
       <c r="C76" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E76" s="22"/>
+      <c r="E76" s="25"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="26"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
         <v>1</v>
@@ -8650,28 +8650,28 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="26"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="25">
         <v>40000</v>
       </c>
-      <c r="E98" s="22"/>
+      <c r="E98" s="25"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="26"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="25">
         <f>D103/0.002378</f>
         <v>0.24684608915054668</v>
       </c>
-      <c r="E99" s="22"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="26"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="19" t="s">
         <v>10</v>
       </c>
@@ -8683,7 +8683,7 @@
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="26"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="19" t="s">
         <v>0</v>
       </c>
@@ -8695,44 +8695,44 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="26"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D102" s="25">
         <v>6.3219441148717109E-2</v>
       </c>
-      <c r="E102" s="22"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="26"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="25">
         <v>5.8699999999999996E-4</v>
       </c>
-      <c r="E103" s="22"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="26"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
     </row>
     <row r="113" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="27" t="s">
+      <c r="B127" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="27"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19" t="s">
         <v>1</v>
@@ -8742,28 +8742,28 @@
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="27"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="25">
         <v>45000</v>
       </c>
-      <c r="E129" s="22"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="27"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="22">
+      <c r="D130" s="25">
         <f>D134/0.002378</f>
         <v>0.19428090832632466</v>
       </c>
-      <c r="E130" s="22"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="27"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
         <v>10</v>
       </c>
@@ -8775,7 +8775,7 @@
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="27"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
         <v>0</v>
       </c>
@@ -8787,44 +8787,44 @@
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="27"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="25">
         <v>5.9832685372892984E-2</v>
       </c>
-      <c r="E133" s="22"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="27"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="22">
+      <c r="D134" s="25">
         <v>4.6200000000000001E-4</v>
       </c>
-      <c r="E134" s="22"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="27"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="21"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="137" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="27" t="s">
+      <c r="B155" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="27"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19" t="s">
         <v>1</v>
@@ -8834,28 +8834,28 @@
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="27"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="22">
+      <c r="D157" s="25">
         <v>50000</v>
       </c>
-      <c r="E157" s="22"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="27"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="22">
+      <c r="D158" s="25">
         <f>D162/0.002378</f>
         <v>0.15306980656013458</v>
       </c>
-      <c r="E158" s="22"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="27"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="19" t="s">
         <v>10</v>
       </c>
@@ -8867,7 +8867,7 @@
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="27"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="19" t="s">
         <v>0</v>
       </c>
@@ -8879,65 +8879,33 @@
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="27"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="24">
+      <c r="D161" s="26">
         <v>5.67E-2</v>
       </c>
-      <c r="E161" s="25"/>
+      <c r="E161" s="27"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="27"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D162" s="22">
+      <c r="D162" s="25">
         <v>3.6400000000000001E-4</v>
       </c>
-      <c r="E162" s="22"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="27"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="21"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="BS11:BS19"/>
-    <mergeCell ref="W13:W21"/>
-    <mergeCell ref="K14:K22"/>
-    <mergeCell ref="AH14:AH22"/>
-    <mergeCell ref="AT12:AT20"/>
-    <mergeCell ref="BF13:BF21"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="B127:B135"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B36:B44"/>
@@ -8954,6 +8922,38 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B127:B135"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="BS11:BS19"/>
+    <mergeCell ref="W13:W21"/>
+    <mergeCell ref="K14:K22"/>
+    <mergeCell ref="AH14:AH22"/>
+    <mergeCell ref="AT12:AT20"/>
+    <mergeCell ref="BF13:BF21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8965,7 +8965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2C25DB-E31D-42C8-AE70-B173B5C70647}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -10383,11 +10383,11 @@
       <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K26" si="0">RoC/sig/SQRT(2*Q2/ro/SQRT(CD0_50/K))+1/sig/LOD_50</f>
         <v>0.25193884413335133</v>
@@ -10474,10 +10474,10 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="25">
         <v>32000</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="25"/>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>0.23258574705105578</v>
@@ -10519,11 +10519,11 @@
       <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="25">
         <f>(1-6.873*0.000001*D4)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="25"/>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>0.22765312048488617</v>
@@ -10659,10 +10659,10 @@
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="25">
         <v>5.9832685372892984E-2</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="25"/>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>0.21890104086720302</v>
@@ -10704,11 +10704,11 @@
       <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="25">
         <f>0.002297*D5</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="25"/>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
         <v>0.21701157723438874</v>
@@ -10750,11 +10750,11 @@
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="25"/>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
         <v>0.21541314717320359</v>
@@ -11276,11 +11276,11 @@
       <c r="B24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
         <v>0.20493762221019932</v>
@@ -11367,10 +11367,10 @@
       <c r="C26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="25">
         <v>32000</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="25"/>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
         <v>0.20418931355563769</v>
@@ -11412,11 +11412,11 @@
       <c r="C27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="25">
         <f>(1-6.873*0.000001*D26)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="25"/>
       <c r="K27" s="1">
         <f t="shared" ref="K27:K38" si="8">RoC/sig/SQRT(2*Q27/ro/SQRT(CD0_50/K))+1/sig/LOD_50</f>
         <v>0.20384673987317001</v>
@@ -11552,10 +11552,10 @@
       <c r="C30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="26">
         <v>5.67E-2</v>
       </c>
-      <c r="E30" s="25"/>
+      <c r="E30" s="27"/>
       <c r="K30" s="1">
         <f t="shared" si="8"/>
         <v>0.20292388584706395</v>
@@ -11597,11 +11597,11 @@
       <c r="C31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="25">
         <f>0.002297*D27</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="25"/>
       <c r="K31" s="1">
         <f t="shared" si="8"/>
         <v>0.20264645844348728</v>
@@ -11643,11 +11643,11 @@
       <c r="C32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="25"/>
       <c r="K32" s="1">
         <f t="shared" si="8"/>
         <v>0.20238213923412884</v>
@@ -11910,11 +11910,11 @@
       <c r="B56" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="23"/>
@@ -11931,21 +11931,21 @@
       <c r="C58" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="25">
         <v>32000</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="23"/>
       <c r="C59" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="25">
         <f>(1-6.873*0.000001*D58)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E59" s="22"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
@@ -11976,45 +11976,45 @@
       <c r="C62" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="25">
         <v>6.3219441148717109E-2</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="23"/>
       <c r="C63" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="25">
         <f>0.002297*D59</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="23"/>
       <c r="C64" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E64" s="22"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="26"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19" t="s">
         <v>1</v>
@@ -12024,28 +12024,28 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="25">
         <v>40000</v>
       </c>
-      <c r="E86" s="22"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="25">
         <f>D91/0.002378</f>
         <v>0.24684608915054668</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="19" t="s">
         <v>10</v>
       </c>
@@ -12057,7 +12057,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="19" t="s">
         <v>0</v>
       </c>
@@ -12069,43 +12069,43 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="25">
         <v>6.3219441148717109E-2</v>
       </c>
-      <c r="E90" s="22"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="26"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="25">
         <v>5.8699999999999996E-4</v>
       </c>
-      <c r="E91" s="22"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="27" t="s">
+      <c r="B115" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="27"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
         <v>1</v>
@@ -12115,28 +12115,28 @@
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="25">
         <v>45000</v>
       </c>
-      <c r="E117" s="22"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="25">
         <f>D122/0.002378</f>
         <v>0.19428090832632466</v>
       </c>
-      <c r="E118" s="22"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="19" t="s">
         <v>10</v>
       </c>
@@ -12148,7 +12148,7 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="19" t="s">
         <v>0</v>
       </c>
@@ -12160,43 +12160,43 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="25">
         <v>5.9832685372892984E-2</v>
       </c>
-      <c r="E121" s="22"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="22">
+      <c r="D122" s="25">
         <v>4.6200000000000001E-4</v>
       </c>
-      <c r="E122" s="22"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C143" s="22" t="s">
+      <c r="C143" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="27"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="19"/>
       <c r="D144" s="19" t="s">
         <v>1</v>
@@ -12206,28 +12206,28 @@
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="27"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="22">
+      <c r="D145" s="25">
         <v>50000</v>
       </c>
-      <c r="E145" s="22"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="25">
         <f>D150/0.002378</f>
         <v>0.15306980656013458</v>
       </c>
-      <c r="E146" s="22"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="19" t="s">
         <v>10</v>
       </c>
@@ -12239,7 +12239,7 @@
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="19" t="s">
         <v>0</v>
       </c>
@@ -12251,33 +12251,68 @@
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="24">
+      <c r="D149" s="26">
         <v>5.67E-2</v>
       </c>
-      <c r="E149" s="25"/>
+      <c r="E149" s="27"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="27"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="22">
+      <c r="D150" s="25">
         <v>3.6400000000000001E-4</v>
       </c>
-      <c r="E150" s="22"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B115:B123"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="B143:B151"/>
     <mergeCell ref="C143:E143"/>
     <mergeCell ref="D145:E145"/>
@@ -12285,41 +12320,6 @@
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
-    <mergeCell ref="B115:B123"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12329,7 +12329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43234271-8BBE-4864-A365-47FF716523C0}">
   <dimension ref="B1:P152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -12405,11 +12405,11 @@
       <c r="B3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="H3" s="1">
         <f>RoC/sig/SQRT(2*N3/ro/SQRT(CD0_50/K_low))+1/sig/LOD_50_low</f>
         <v>0.23907620642632768</v>
@@ -12496,10 +12496,10 @@
       <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="25">
         <v>32000</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="1">
         <f t="shared" si="7"/>
         <v>0.22708182601356205</v>
@@ -12541,11 +12541,11 @@
       <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="25">
         <f>(1-6.873*0.000001*D5)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="25"/>
       <c r="H6" s="1">
         <f t="shared" si="7"/>
         <v>0.22349048870447358</v>
@@ -12681,10 +12681,10 @@
       <c r="C9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="25">
         <v>5.9832685372892984E-2</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="25"/>
       <c r="H9" s="1">
         <f t="shared" si="7"/>
         <v>0.21658575947670522</v>
@@ -12726,11 +12726,11 @@
       <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="25">
         <f>0.002297*D6</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="1">
         <f t="shared" si="7"/>
         <v>0.21500918097847591</v>
@@ -12772,11 +12772,11 @@
       <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="25"/>
       <c r="H11" s="1">
         <f t="shared" si="7"/>
         <v>0.21365280423969613</v>
@@ -13298,11 +13298,11 @@
       <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="H25" s="1">
         <f t="shared" si="7"/>
         <v>0.20429675072644501</v>
@@ -13389,21 +13389,21 @@
       <c r="C27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="25">
         <v>32000</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="25">
         <f>(1-6.873*0.000001*D27)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
@@ -13434,42 +13434,42 @@
       <c r="C31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="26">
         <v>5.67E-2</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="25">
         <f>0.002297*D28</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
@@ -13486,21 +13486,21 @@
       <c r="C59" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="25">
         <v>32000</v>
       </c>
-      <c r="E59" s="22"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
       <c r="C60" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="25">
         <f>(1-6.873*0.000001*D59)^4.26</f>
         <v>0.34711613692395921</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
@@ -13531,45 +13531,45 @@
       <c r="C63" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="25">
         <v>6.3219441148717109E-2</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="23"/>
       <c r="C64" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="25">
         <f>0.002297*D60</f>
         <v>7.9732576651433431E-4</v>
       </c>
-      <c r="E64" s="22"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
       <c r="C65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="25">
         <f>300/60</f>
         <v>5</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
         <v>1</v>
@@ -13579,28 +13579,28 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="25">
         <v>40000</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="25">
         <f>D92/0.002378</f>
         <v>0.24684608915054668</v>
       </c>
-      <c r="E88" s="22"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="19" t="s">
         <v>10</v>
       </c>
@@ -13612,7 +13612,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="19" t="s">
         <v>0</v>
       </c>
@@ -13624,43 +13624,43 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="26"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="25">
         <v>6.3219441148717109E-2</v>
       </c>
-      <c r="E91" s="22"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="25">
         <v>5.8699999999999996E-4</v>
       </c>
-      <c r="E92" s="22"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19" t="s">
         <v>1</v>
@@ -13670,28 +13670,28 @@
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="25">
         <v>45000</v>
       </c>
-      <c r="E118" s="22"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="25">
         <f>D123/0.002378</f>
         <v>0.19428090832632466</v>
       </c>
-      <c r="E119" s="22"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="19" t="s">
         <v>10</v>
       </c>
@@ -13703,7 +13703,7 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="19" t="s">
         <v>0</v>
       </c>
@@ -13715,43 +13715,43 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="22">
+      <c r="D122" s="25">
         <v>5.9832685372892984E-2</v>
       </c>
-      <c r="E122" s="22"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="25">
         <v>4.6200000000000001E-4</v>
       </c>
-      <c r="E123" s="22"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="27" t="s">
+      <c r="B144" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="27"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="19"/>
       <c r="D145" s="19" t="s">
         <v>1</v>
@@ -13761,28 +13761,28 @@
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="25">
         <v>50000</v>
       </c>
-      <c r="E146" s="22"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="25">
         <f>D151/0.002378</f>
         <v>0.15306980656013458</v>
       </c>
-      <c r="E147" s="22"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="19" t="s">
         <v>10</v>
       </c>
@@ -13794,7 +13794,7 @@
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="19" t="s">
         <v>0</v>
       </c>
@@ -13806,33 +13806,68 @@
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="27"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="24">
+      <c r="D150" s="26">
         <v>5.67E-2</v>
       </c>
-      <c r="E150" s="25"/>
+      <c r="E150" s="27"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D151" s="25">
         <v>3.6400000000000001E-4</v>
       </c>
-      <c r="E151" s="22"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="27"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="B144:B152"/>
     <mergeCell ref="C144:E144"/>
     <mergeCell ref="D146:E146"/>
@@ -13840,41 +13875,6 @@
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
     <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13884,8 +13884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EE3837-C767-4978-A795-671EC6CEA976}">
   <dimension ref="B1:P152"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:P51"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13957,14 +13957,10 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H26" si="6">H2</f>
         <v>0.26136176292795515</v>
@@ -14004,12 +14000,8 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="H4" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14048,13 +14040,9 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14093,14 +14081,9 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22">
-        <f>(1-6.873*0.000001*D5)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="H6" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14139,15 +14122,9 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
-      <c r="C7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E7" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="H7" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14186,15 +14163,9 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
-      <c r="C8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="H8" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14233,13 +14204,9 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="22">
-        <v>5.9832685372892984E-2</v>
-      </c>
-      <c r="E9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="H9" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14278,14 +14245,9 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
-      <c r="C10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="22">
-        <f>0.002297*D6</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14324,14 +14286,9 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
-      <c r="C11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="H11" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14850,14 +14807,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="H25" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14897,12 +14850,8 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
       <c r="H26" s="1">
         <f t="shared" si="6"/>
         <v>0.26136176292795515</v>
@@ -14941,13 +14890,9 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
-      <c r="C27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="H27" s="1">
         <f t="shared" ref="H27:H51" si="8">H26</f>
         <v>0.26136176292795515</v>
@@ -14986,14 +14931,9 @@
     </row>
     <row r="28" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
-      <c r="C28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="22">
-        <f>(1-6.873*0.000001*D27)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E28" s="22"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="H28" s="1">
         <f t="shared" si="8"/>
         <v>0.26136176292795515</v>
@@ -15032,15 +14972,9 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
-      <c r="C29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E29" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="H29" s="1">
         <f t="shared" si="8"/>
         <v>0.26136176292795515</v>
@@ -15079,15 +15013,9 @@
     </row>
     <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23"/>
-      <c r="C30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="H30" s="1">
         <f t="shared" si="8"/>
         <v>0.26136176292795515</v>
@@ -15126,13 +15054,9 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
-      <c r="C31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="24">
-        <v>5.67E-2</v>
-      </c>
-      <c r="E31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
       <c r="H31" s="1">
         <f t="shared" si="8"/>
         <v>0.26136176292795515</v>
@@ -15171,14 +15095,9 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
-      <c r="C32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="22">
-        <f>0.002297*D28</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E32" s="22"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="H32" s="1">
         <f t="shared" si="8"/>
         <v>0.26136176292795515</v>
@@ -15217,14 +15136,9 @@
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23"/>
-      <c r="C33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="H33" s="1">
         <f t="shared" si="8"/>
         <v>0.26136176292795515</v>
@@ -15928,377 +15842,258 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="23"/>
-      <c r="C59" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E59" s="22"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
-      <c r="C60" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="22">
-        <f>(1-6.873*0.000001*D59)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E60" s="22"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
-      <c r="C61" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E61" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="23"/>
-      <c r="C62" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E62" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="23"/>
-      <c r="C63" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="22">
-        <v>6.3219441148717109E-2</v>
-      </c>
-      <c r="E63" s="22"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="23"/>
-      <c r="C64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="22">
-        <f>0.002297*D60</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E64" s="22"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
-      <c r="C65" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E65" s="22"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
-      <c r="C87" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="22">
-        <v>40000</v>
-      </c>
-      <c r="E87" s="22"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
-      <c r="C88" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="22">
-        <f>D92/0.002378</f>
-        <v>0.24684608915054668</v>
-      </c>
-      <c r="E88" s="22"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E89" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E90" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="22">
-        <v>6.3219441148717109E-2</v>
-      </c>
-      <c r="E91" s="22"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="22">
-        <v>5.8699999999999996E-4</v>
-      </c>
-      <c r="E92" s="22"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="19"/>
-      <c r="D117" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
-      <c r="C118" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="22">
-        <v>45000</v>
-      </c>
-      <c r="E118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
-      <c r="C119" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="22">
-        <f>D123/0.002378</f>
-        <v>0.19428090832632466</v>
-      </c>
-      <c r="E119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
-      <c r="C120" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E120" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
-      <c r="C121" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E121" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
-      <c r="C122" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="22">
-        <v>5.9832685372892984E-2</v>
-      </c>
-      <c r="E122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
-      <c r="C123" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="22">
-        <v>4.6200000000000001E-4</v>
-      </c>
-      <c r="E123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="27"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="19"/>
-      <c r="D145" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
-      <c r="C146" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="22">
-        <v>50000</v>
-      </c>
-      <c r="E146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
-      <c r="C147" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="22">
-        <f>D151/0.002378</f>
-        <v>0.15306980656013458</v>
-      </c>
-      <c r="E147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
-      <c r="C148" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E148" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
-      <c r="C149" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="27"/>
-      <c r="C150" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="24">
-        <v>5.67E-2</v>
-      </c>
-      <c r="E150" s="25"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="27"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
-      <c r="C151" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="22">
-        <v>3.6400000000000001E-4</v>
-      </c>
-      <c r="E151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="27"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="B144:B152"/>
     <mergeCell ref="C144:E144"/>
     <mergeCell ref="D146:E146"/>
@@ -16306,41 +16101,6 @@
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
     <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16350,8 +16110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570BEF50-29FB-45C5-81BE-376E04D1F9C6}">
   <dimension ref="B1:P152"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:P35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16423,14 +16183,10 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H35" si="6">H2</f>
         <v>0.33207652562491269</v>
@@ -16470,12 +16226,8 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="H4" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -16514,13 +16266,9 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -16559,14 +16307,9 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22">
-        <f>(1-6.873*0.000001*D5)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="H6" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -16605,15 +16348,9 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
-      <c r="C7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E7" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="H7" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -16652,15 +16389,9 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
-      <c r="C8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="H8" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -16699,13 +16430,9 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="22">
-        <v>5.9832685372892984E-2</v>
-      </c>
-      <c r="E9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="H9" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -16744,14 +16471,9 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
-      <c r="C10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="22">
-        <f>0.002297*D6</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -16790,14 +16512,9 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
-      <c r="C11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="H11" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17316,14 +17033,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="H25" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17363,12 +17076,8 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
       <c r="H26" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17407,13 +17116,9 @@
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
-      <c r="C27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="H27" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17452,14 +17157,9 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
-      <c r="C28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="22">
-        <f>(1-6.873*0.000001*D27)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E28" s="22"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="H28" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17498,15 +17198,9 @@
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23"/>
-      <c r="C29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E29" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="H29" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17545,15 +17239,9 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
-      <c r="C30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="H30" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17592,13 +17280,9 @@
     </row>
     <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="23"/>
-      <c r="C31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="24">
-        <v>5.67E-2</v>
-      </c>
-      <c r="E31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
       <c r="H31" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17637,14 +17321,9 @@
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23"/>
-      <c r="C32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="22">
-        <f>0.002297*D28</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E32" s="22"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="H32" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17683,14 +17362,9 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
-      <c r="C33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="H33" s="1">
         <f t="shared" si="6"/>
         <v>0.33207652562491269</v>
@@ -17802,377 +17476,258 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="23"/>
-      <c r="C59" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E59" s="22"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
-      <c r="C60" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="22">
-        <f>(1-6.873*0.000001*D59)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E60" s="22"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
-      <c r="C61" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E61" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="23"/>
-      <c r="C62" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E62" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="23"/>
-      <c r="C63" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="22">
-        <v>6.3219441148717109E-2</v>
-      </c>
-      <c r="E63" s="22"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="23"/>
-      <c r="C64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="22">
-        <f>0.002297*D60</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E64" s="22"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
-      <c r="C65" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E65" s="22"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
-      <c r="C87" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="22">
-        <v>40000</v>
-      </c>
-      <c r="E87" s="22"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
-      <c r="C88" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="22">
-        <f>D92/0.002378</f>
-        <v>0.24684608915054668</v>
-      </c>
-      <c r="E88" s="22"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E89" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E90" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="22">
-        <v>6.3219441148717109E-2</v>
-      </c>
-      <c r="E91" s="22"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="22">
-        <v>5.8699999999999996E-4</v>
-      </c>
-      <c r="E92" s="22"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="19"/>
-      <c r="D117" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
-      <c r="C118" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="22">
-        <v>45000</v>
-      </c>
-      <c r="E118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
-      <c r="C119" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="22">
-        <f>D123/0.002378</f>
-        <v>0.19428090832632466</v>
-      </c>
-      <c r="E119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
-      <c r="C120" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E120" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
-      <c r="C121" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E121" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
-      <c r="C122" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="22">
-        <v>5.9832685372892984E-2</v>
-      </c>
-      <c r="E122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
-      <c r="C123" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="22">
-        <v>4.6200000000000001E-4</v>
-      </c>
-      <c r="E123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="27"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="19"/>
-      <c r="D145" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
-      <c r="C146" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="22">
-        <v>50000</v>
-      </c>
-      <c r="E146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
-      <c r="C147" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="22">
-        <f>D151/0.002378</f>
-        <v>0.15306980656013458</v>
-      </c>
-      <c r="E147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
-      <c r="C148" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E148" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
-      <c r="C149" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="27"/>
-      <c r="C150" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="24">
-        <v>5.67E-2</v>
-      </c>
-      <c r="E150" s="25"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="27"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
-      <c r="C151" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="22">
-        <v>3.6400000000000001E-4</v>
-      </c>
-      <c r="E151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="27"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="B144:B152"/>
     <mergeCell ref="C144:E144"/>
     <mergeCell ref="D146:E146"/>
@@ -18180,41 +17735,6 @@
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
     <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18224,8 +17744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD71065-8637-4FDE-8DCF-DFC336945CBE}">
   <dimension ref="B1:P152"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18297,14 +17817,10 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H26" si="6">H2</f>
         <v>0.42148174406238914</v>
@@ -18344,12 +17860,8 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="H4" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -18388,13 +17900,9 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -18433,14 +17941,9 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22">
-        <f>(1-6.873*0.000001*D5)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="H6" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -18479,15 +17982,9 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
-      <c r="C7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E7" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="H7" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -18526,15 +18023,9 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
-      <c r="C8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="H8" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -18573,13 +18064,9 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="22">
-        <v>5.9832685372892984E-2</v>
-      </c>
-      <c r="E9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="H9" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -18618,14 +18105,9 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
-      <c r="C10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="22">
-        <f>0.002297*D6</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="H10" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -18664,14 +18146,9 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
-      <c r="C11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="H11" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -19190,14 +18667,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="H25" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -19237,12 +18710,8 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
       <c r="H26" s="1">
         <f t="shared" si="6"/>
         <v>0.42148174406238914</v>
@@ -19281,13 +18750,9 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
-      <c r="C27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="H27" s="1">
         <f t="shared" ref="H27:H41" si="8">H26</f>
         <v>0.42148174406238914</v>
@@ -19326,14 +18791,9 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
-      <c r="C28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="22">
-        <f>(1-6.873*0.000001*D27)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E28" s="22"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="H28" s="1">
         <f t="shared" si="8"/>
         <v>0.42148174406238914</v>
@@ -19372,15 +18832,9 @@
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23"/>
-      <c r="C29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E29" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="H29" s="1">
         <f t="shared" si="8"/>
         <v>0.42148174406238914</v>
@@ -19419,15 +18873,9 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
-      <c r="C30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="H30" s="1">
         <f t="shared" si="8"/>
         <v>0.42148174406238914</v>
@@ -19466,13 +18914,9 @@
     </row>
     <row r="31" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="23"/>
-      <c r="C31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="24">
-        <v>5.67E-2</v>
-      </c>
-      <c r="E31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
       <c r="H31" s="1">
         <f t="shared" si="8"/>
         <v>0.42148174406238914</v>
@@ -19511,14 +18955,9 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
-      <c r="C32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="22">
-        <f>0.002297*D28</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E32" s="22"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="H32" s="1">
         <f t="shared" si="8"/>
         <v>0.42148174406238914</v>
@@ -19557,14 +18996,9 @@
     </row>
     <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23"/>
-      <c r="C33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="H33" s="1">
         <f t="shared" si="8"/>
         <v>0.42148174406238914</v>
@@ -19898,377 +19332,258 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="23"/>
-      <c r="C59" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="22">
-        <v>32000</v>
-      </c>
-      <c r="E59" s="22"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
-      <c r="C60" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="22">
-        <f>(1-6.873*0.000001*D59)^4.26</f>
-        <v>0.34711613692395921</v>
-      </c>
-      <c r="E60" s="22"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
-      <c r="C61" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E61" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="23"/>
-      <c r="C62" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E62" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="23"/>
-      <c r="C63" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="22">
-        <v>6.3219441148717109E-2</v>
-      </c>
-      <c r="E63" s="22"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="23"/>
-      <c r="C64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="22">
-        <f>0.002297*D60</f>
-        <v>7.9732576651433431E-4</v>
-      </c>
-      <c r="E64" s="22"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
-      <c r="C65" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="22">
-        <f>300/60</f>
-        <v>5</v>
-      </c>
-      <c r="E65" s="22"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
-      <c r="C87" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="22">
-        <v>40000</v>
-      </c>
-      <c r="E87" s="22"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
-      <c r="C88" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="22">
-        <f>D92/0.002378</f>
-        <v>0.24684608915054668</v>
-      </c>
-      <c r="E88" s="22"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
-      <c r="C89" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E89" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
-      <c r="C90" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E90" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="26"/>
-      <c r="C91" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="22">
-        <v>6.3219441148717109E-2</v>
-      </c>
-      <c r="E91" s="22"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
-      <c r="C92" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="22">
-        <v>5.8699999999999996E-4</v>
-      </c>
-      <c r="E92" s="22"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="27"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="19"/>
-      <c r="D117" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="27"/>
-      <c r="C118" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="22">
-        <v>45000</v>
-      </c>
-      <c r="E118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
-      <c r="C119" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="22">
-        <f>D123/0.002378</f>
-        <v>0.19428090832632466</v>
-      </c>
-      <c r="E119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
-      <c r="C120" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E120" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
-      <c r="C121" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E121" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
-      <c r="C122" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="22">
-        <v>5.9832685372892984E-2</v>
-      </c>
-      <c r="E122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
-      <c r="C123" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="22">
-        <v>4.6200000000000001E-4</v>
-      </c>
-      <c r="E123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="27"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="19"/>
-      <c r="D145" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
-      <c r="C146" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="22">
-        <v>50000</v>
-      </c>
-      <c r="E146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
-      <c r="C147" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="22">
-        <f>D151/0.002378</f>
-        <v>0.15306980656013458</v>
-      </c>
-      <c r="E147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
-      <c r="C148" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="20">
-        <v>15.5</v>
-      </c>
-      <c r="E148" s="20">
-        <v>15.5</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
-      <c r="C149" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" s="20">
-        <v>1.6669045030267535E-2</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1.8181888339541302E-2</v>
-      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="27"/>
-      <c r="C150" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="24">
-        <v>5.67E-2</v>
-      </c>
-      <c r="E150" s="25"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="27"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
-      <c r="C151" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="22">
-        <v>3.6400000000000001E-4</v>
-      </c>
-      <c r="E151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="27"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B116:B124"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="B144:B152"/>
     <mergeCell ref="C144:E144"/>
     <mergeCell ref="D146:E146"/>
@@ -20276,41 +19591,6 @@
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
     <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
